--- a/SPPSApi/Doc/Template/FS0309_DiaoDa_Wai.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_DiaoDa_Wai.xlsx
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">十年年计!$C$2:$Q$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">依赖!$A$8:$P$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>担当</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -283,18 +283,6 @@
   </si>
   <si>
     <t>N+10</t>
-  </si>
-  <si>
-    <t>64306-F4020</t>
-  </si>
-  <si>
-    <t>280B</t>
-  </si>
-  <si>
-    <t>SUSPENDER SUB-ASSY, PACKAGE TRAY TRIM</t>
-  </si>
-  <si>
-    <t>天津奥源</t>
   </si>
 </sst>
 </file>
@@ -791,15 +779,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,6 +810,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,7 +1355,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
@@ -1396,11 +1384,11 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="11"/>
@@ -1553,13 +1541,13 @@
   <dimension ref="B2:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="0.88671875" customWidth="1"/>
-    <col min="2" max="2" width="5" style="59" customWidth="1"/>
+    <col min="2" max="2" width="5" style="56" customWidth="1"/>
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
@@ -1568,104 +1556,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="27.6">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="52" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="14.4">
-      <c r="B3" s="56">
+      <c r="B3" s="53">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="21">
-        <v>3230</v>
-      </c>
-      <c r="H3" s="58">
-        <v>7</v>
-      </c>
-      <c r="I3" s="58">
-        <v>8</v>
-      </c>
-      <c r="J3" s="58">
-        <v>6</v>
-      </c>
-      <c r="K3" s="58">
-        <v>7</v>
-      </c>
-      <c r="L3" s="58">
-        <v>8</v>
-      </c>
-      <c r="M3" s="58">
-        <v>8</v>
-      </c>
-      <c r="N3" s="58">
-        <v>9</v>
-      </c>
-      <c r="O3" s="58">
-        <v>6</v>
-      </c>
-      <c r="P3" s="58">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="58">
-        <v>4</v>
-      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1689,11 +1647,11 @@
   <sheetData>
     <row r="6" spans="4:6" ht="13.8" thickBot="1"/>
     <row r="7" spans="4:6" ht="14.4">
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="4:6" ht="18.75" customHeight="1" thickBot="1">
       <c r="D8" s="22" t="s">

--- a/SPPSApi/Doc/Template/FS0309_DiaoDa_Wai.xlsx
+++ b/SPPSApi/Doc/Template/FS0309_DiaoDa_Wai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="4176" windowWidth="14940" windowHeight="6180" tabRatio="551"/>
+    <workbookView xWindow="1320" yWindow="4170" windowWidth="14940" windowHeight="6180" tabRatio="551"/>
   </bookViews>
   <sheets>
     <sheet name="依赖" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">十年年计!$C$2:$Q$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">依赖!$A$8:$P$8</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -997,7 +997,7 @@
               <a:latin typeface="宋体"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>福井课长 殿</a:t>
+            <a:t>山口课长 殿</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1355,25 +1355,25 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="14" customWidth="1"/>
-    <col min="9" max="10" width="5.88671875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="14" customWidth="1"/>
-    <col min="12" max="13" width="12.77734375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="14" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="14" customWidth="1"/>
+    <col min="9" max="10" width="5.875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="14" customWidth="1"/>
+    <col min="12" max="13" width="12.75" style="14" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8" style="28"/>
   </cols>
   <sheetData>
@@ -1429,7 +1429,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6">
+    <row r="6" spans="1:16" ht="14.25">
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
       <c r="N6" s="44"/>
@@ -1544,18 +1544,18 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5" style="56" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="27.6">
+    <row r="2" spans="2:17" ht="27">
       <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.4">
+    <row r="3" spans="2:17">
       <c r="B3" s="53">
         <v>1</v>
       </c>
@@ -1640,13 +1640,13 @@
       <selection activeCell="D7" sqref="D7:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="6" width="9.33203125" customWidth="1"/>
+    <col min="4" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:6" ht="13.8" thickBot="1"/>
-    <row r="7" spans="4:6" ht="14.4">
+    <row r="6" spans="4:6" ht="14.25" thickBot="1"/>
+    <row r="7" spans="4:6">
       <c r="D7" s="57" t="s">
         <v>5</v>
       </c>
